--- a/Metricas_Codigo/LEI-122687-Methods.xlsx
+++ b/Metricas_Codigo/LEI-122687-Methods.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2020B24F-447A-E64C-9D46-704E40744B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3780" yWindow="3400" windowWidth="25820" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Method Name</t>
   </si>
@@ -79,9 +85,6 @@
     <t>NOPM</t>
   </si>
   <si>
-    <t>Comentário</t>
-  </si>
-  <si>
     <t>com.example.examplefeature.ui.TaskListView.TaskListView(TaskService, PdfExporter)</t>
   </si>
   <si>
@@ -92,22 +95,13 @@
   </si>
   <si>
     <t>com.example.examplefeature.PdfExporter.exportAllTasksToPdf()</t>
-  </si>
-  <si>
-    <t>Complexidade moderada, pode ser melhorada. Método demasiado longo, considerar extrair submétodos. Utiliza muitos atributos externos, possível acoplamento excessivo.</t>
-  </si>
-  <si>
-    <t>Complexidade baixa e aceitável. Método curto e claro.</t>
-  </si>
-  <si>
-    <t>Complexidade moderada, pode ser melhorada. Método de tamanho médio, legibilidade aceitável.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +164,702 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF8134A-065A-8A49-9AF4-42E0E87513EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="2679700"/>
+          <a:ext cx="6261100" cy="5130800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>com.example.examplefeature.ui.TaskListView.TaskListView(TaskService, PdfExporter)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CC (complexidade ciclomática do método), classificação: extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CCM (versão cognitiva da complexidade), classificação: elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CINT (intensidade de coupling dentro do método), classificação: extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CND (profundidade de condições aninhadas.), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>FDP (número de atributos externos acedidos pelo método), classificação: extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LND (profundidade de ciclos aninhados), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LOC (linhas de código do método), classificação: extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>MND (profundidade máxima de alinhamento), classificação: elevado.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOAV (variáveis acedidas), classificação: extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOPM (número de parâmetros do método.), classificação: regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>Sugestões: reduzir acoplamento/encapsular dados; reduzir complexidade (extrair métodos, simplificar lógica); re-fatorizar método dividindo em sub-métodos e adicionar testes unitários.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC938AF4-0D6C-2746-A700-3300114263AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870700" y="2667000"/>
+          <a:ext cx="3848100" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>com.example.examplefeature.ui.TaskListView.exportPdf()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CC regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CCM regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CINT elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>FDP elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LOC elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>MND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOAV extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOPM= regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>Sugestões: reduzir acoplamento/encapsular dados; ref-atorizar método dividindo em sub-métodos e adicionar testes unitários.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E9E73B-845E-9647-826D-B86428C6CAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="2679700"/>
+          <a:ext cx="3848100" cy="5156200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>com.example.examplefeature.PdfExporter.PdfExporter(TaskService)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CC regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CCM regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CINT regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>FDP regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LOC regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>MND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOAV regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOPM regular.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>De acordo com a figura 1 da ficha 3, não há classes com valor a cima do normal.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BB51E3-EDBB-214A-B77B-CBEE945D2F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15786100" y="2679700"/>
+          <a:ext cx="4419600" cy="5156200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>com.example.examplefeature.PdfExporter.exportAllTasksToPdf()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CC muito elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CCM regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CINT extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>CND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>FDP regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LND regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>LOC extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>MND elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOAV extremamente elevado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>NOPM regular. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1200" u="none" baseline="0"/>
+            <a:t>Sugestões: reduzir acoplamento/encapsular dados; reduzir complexidade (extrair métodos, simplificar lógica); refatorizar método dividindo em submétodos e adicionar testes unitários.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +897,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +931,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +966,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +1142,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,13 +1218,11 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -543,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2">
         <v>58</v>
@@ -552,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>72.5269</v>
+        <v>72.526899999999998</v>
       </c>
       <c r="H2">
-        <v>186767.1064</v>
+        <v>186767.10639999999</v>
       </c>
       <c r="I2">
         <v>1.0891</v>
@@ -573,13 +1261,13 @@
         <v>133</v>
       </c>
       <c r="N2">
-        <v>0.2593</v>
+        <v>0.25929999999999997</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>29.4784</v>
+        <v>29.478400000000001</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -596,13 +1284,10 @@
       <c r="U2">
         <v>2</v>
       </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -620,13 +1305,13 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>8.615399999999999</v>
+        <v>8.6153999999999993</v>
       </c>
       <c r="H3">
-        <v>1255.6012</v>
+        <v>1255.6012000000001</v>
       </c>
       <c r="I3">
-        <v>0.0388</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="J3">
         <v>30</v>
@@ -635,7 +1320,7 @@
         <v>29</v>
       </c>
       <c r="L3">
-        <v>145.7394</v>
+        <v>145.73939999999999</v>
       </c>
       <c r="M3">
         <v>26</v>
@@ -647,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>53.9067</v>
+        <v>53.906700000000001</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -664,13 +1349,10 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -694,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>0.0013</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -715,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>80.5432</v>
+        <v>80.543199999999999</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -732,13 +1414,10 @@
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -756,13 +1435,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>38.5714</v>
+        <v>38.571399999999997</v>
       </c>
       <c r="H5">
-        <v>28921.689</v>
+        <v>28921.688999999998</v>
       </c>
       <c r="I5">
-        <v>0.3141</v>
+        <v>0.31409999999999999</v>
       </c>
       <c r="J5">
         <v>128</v>
@@ -771,19 +1450,19 @@
         <v>58</v>
       </c>
       <c r="L5">
-        <v>749.8216</v>
+        <v>749.82159999999999</v>
       </c>
       <c r="M5">
         <v>72</v>
       </c>
       <c r="N5">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <v>39.0953</v>
+        <v>39.095300000000002</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -799,12 +1478,10 @@
       </c>
       <c r="U5">
         <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>